--- a/DataSci_Python00/pandas.xlsx
+++ b/DataSci_Python00/pandas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Duration</t>
   </si>
@@ -302,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,6 +387,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,20 +1260,168 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G42" s="1"/>
+    <row r="39" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="34">
+        <v>30</v>
+      </c>
+      <c r="C40" s="29">
+        <v>80</v>
+      </c>
+      <c r="D40" s="29">
+        <v>120</v>
+      </c>
+      <c r="E40" s="29">
+        <v>240</v>
+      </c>
+      <c r="F40" s="29">
+        <v>10</v>
+      </c>
+      <c r="G40" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="36">
+        <v>30</v>
+      </c>
+      <c r="C41" s="30">
+        <v>85</v>
+      </c>
+      <c r="D41" s="30">
+        <v>120</v>
+      </c>
+      <c r="E41" s="30">
+        <v>250</v>
+      </c>
+      <c r="F41" s="30">
+        <v>10</v>
+      </c>
+      <c r="G41" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="34">
+        <v>45</v>
+      </c>
+      <c r="C42" s="29">
+        <v>90</v>
+      </c>
+      <c r="D42" s="29">
+        <v>130</v>
+      </c>
+      <c r="E42" s="29">
+        <v>260</v>
+      </c>
+      <c r="F42" s="29">
+        <v>8</v>
+      </c>
+      <c r="G42" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="36">
+        <v>45</v>
+      </c>
+      <c r="C43" s="30">
+        <v>95</v>
+      </c>
+      <c r="D43" s="30">
+        <v>130</v>
+      </c>
+      <c r="E43" s="30">
+        <v>270</v>
+      </c>
+      <c r="F43" s="30">
+        <v>8</v>
+      </c>
+      <c r="G43" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="34">
+        <v>45</v>
+      </c>
+      <c r="C44" s="29">
+        <v>100</v>
+      </c>
+      <c r="D44" s="29">
+        <v>140</v>
+      </c>
+      <c r="E44" s="29">
+        <v>280</v>
+      </c>
+      <c r="F44" s="29">
+        <v>0</v>
+      </c>
+      <c r="G44" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="36">
+        <v>60</v>
+      </c>
+      <c r="C45" s="30">
+        <v>105</v>
+      </c>
+      <c r="D45" s="30">
+        <v>140</v>
+      </c>
+      <c r="E45" s="30">
+        <v>290</v>
+      </c>
+      <c r="F45" s="30">
+        <v>7</v>
+      </c>
+      <c r="G45" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="38">
+        <v>60</v>
+      </c>
+      <c r="C46" s="39">
+        <v>110</v>
+      </c>
+      <c r="D46" s="39">
+        <v>145</v>
+      </c>
+      <c r="E46" s="39">
+        <v>300</v>
+      </c>
+      <c r="F46" s="39">
+        <v>7</v>
+      </c>
+      <c r="G46" s="40">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1247,12 +1431,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34">
+        <v>30</v>
+      </c>
+      <c r="C4" s="29">
+        <v>80</v>
+      </c>
+      <c r="D4" s="29">
+        <v>120</v>
+      </c>
+      <c r="E4" s="29">
+        <v>240</v>
+      </c>
+      <c r="F4" s="29">
+        <v>10</v>
+      </c>
+      <c r="G4" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="36">
+        <v>30</v>
+      </c>
+      <c r="C5" s="30">
+        <v>85</v>
+      </c>
+      <c r="D5" s="30">
+        <v>120</v>
+      </c>
+      <c r="E5" s="30">
+        <v>250</v>
+      </c>
+      <c r="F5" s="30">
+        <v>10</v>
+      </c>
+      <c r="G5" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34">
+        <v>45</v>
+      </c>
+      <c r="C6" s="29">
+        <v>90</v>
+      </c>
+      <c r="D6" s="29">
+        <v>130</v>
+      </c>
+      <c r="E6" s="29">
+        <v>260</v>
+      </c>
+      <c r="F6" s="29">
+        <v>8</v>
+      </c>
+      <c r="G6" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="36">
+        <v>45</v>
+      </c>
+      <c r="C7" s="30">
+        <v>95</v>
+      </c>
+      <c r="D7" s="30">
+        <v>130</v>
+      </c>
+      <c r="E7" s="30">
+        <v>270</v>
+      </c>
+      <c r="F7" s="30">
+        <v>8</v>
+      </c>
+      <c r="G7" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34">
+        <v>45</v>
+      </c>
+      <c r="C8" s="29">
+        <v>100</v>
+      </c>
+      <c r="D8" s="29">
+        <v>140</v>
+      </c>
+      <c r="E8" s="29">
+        <v>280</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="36">
+        <v>60</v>
+      </c>
+      <c r="C9" s="30">
+        <v>105</v>
+      </c>
+      <c r="D9" s="30">
+        <v>140</v>
+      </c>
+      <c r="E9" s="30">
+        <v>290</v>
+      </c>
+      <c r="F9" s="30">
+        <v>7</v>
+      </c>
+      <c r="G9" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38">
+        <v>60</v>
+      </c>
+      <c r="C10" s="39">
+        <v>110</v>
+      </c>
+      <c r="D10" s="39">
+        <v>145</v>
+      </c>
+      <c r="E10" s="39">
+        <v>300</v>
+      </c>
+      <c r="F10" s="39">
+        <v>7</v>
+      </c>
+      <c r="G10" s="40">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
